--- a/Vjerojatnost smrti populacije od kriticnih bolesti i zdravih od ostalih bolesti_gamma_0.xlsx
+++ b/Vjerojatnost smrti populacije od kriticnih bolesti i zdravih od ostalih bolesti_gamma_0.xlsx
@@ -57,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +65,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,16 +402,16 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C2">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D2">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -403,16 +419,16 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C3">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D3">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -420,16 +436,16 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C4">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D4">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -437,16 +453,16 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C5">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D5">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E5">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -454,16 +470,16 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C6">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D6">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -471,16 +487,16 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C7">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D7">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E7">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -488,16 +504,16 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C8">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D8">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E8">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,16 +521,16 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C9">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D9">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,16 +538,16 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C10">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D10">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E10">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,16 +555,16 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C11">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D11">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E11">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -556,16 +572,16 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C12">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D12">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E12">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -573,16 +589,16 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C13">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D13">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E13">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -590,16 +606,16 @@
         <v>32</v>
       </c>
       <c r="B14">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C14">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D14">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E14">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,16 +623,16 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C15">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D15">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E15">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -624,16 +640,16 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C16">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D16">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E16">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -641,16 +657,16 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C17">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D17">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,16 +674,16 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C18">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D18">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E18">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,16 +691,16 @@
         <v>37</v>
       </c>
       <c r="B19">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C19">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D19">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E19">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -692,16 +708,16 @@
         <v>38</v>
       </c>
       <c r="B20">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C20">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D20">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E20">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -709,16 +725,16 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C21">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D21">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E21">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,16 +742,16 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C22">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D22">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E22">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,16 +759,16 @@
         <v>41</v>
       </c>
       <c r="B23">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C23">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D23">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E23">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -760,16 +776,16 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C24">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D24">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E24">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -777,16 +793,16 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C25">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D25">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E25">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -794,16 +810,16 @@
         <v>44</v>
       </c>
       <c r="B26">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C26">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D26">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E26">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -811,16 +827,16 @@
         <v>45</v>
       </c>
       <c r="B27">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C27">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D27">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E27">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -828,16 +844,16 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C28">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D28">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E28">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -845,16 +861,16 @@
         <v>47</v>
       </c>
       <c r="B29">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C29">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D29">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E29">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,16 +878,16 @@
         <v>48</v>
       </c>
       <c r="B30">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C30">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D30">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E30">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,16 +895,16 @@
         <v>49</v>
       </c>
       <c r="B31">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C31">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D31">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E31">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -896,16 +912,16 @@
         <v>50</v>
       </c>
       <c r="B32">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C32">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D32">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E32">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,16 +929,16 @@
         <v>51</v>
       </c>
       <c r="B33">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C33">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D33">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E33">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -930,16 +946,16 @@
         <v>52</v>
       </c>
       <c r="B34">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C34">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D34">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E34">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,16 +963,16 @@
         <v>53</v>
       </c>
       <c r="B35">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C35">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D35">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E35">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -964,16 +980,16 @@
         <v>54</v>
       </c>
       <c r="B36">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C36">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D36">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E36">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -981,16 +997,16 @@
         <v>55</v>
       </c>
       <c r="B37">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C37">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D37">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E37">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -998,16 +1014,16 @@
         <v>56</v>
       </c>
       <c r="B38">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C38">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D38">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E38">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1015,16 +1031,16 @@
         <v>57</v>
       </c>
       <c r="B39">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C39">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D39">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E39">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1032,16 +1048,16 @@
         <v>58</v>
       </c>
       <c r="B40">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C40">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D40">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E40">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1049,16 +1065,16 @@
         <v>59</v>
       </c>
       <c r="B41">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C41">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D41">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1066,16 +1082,16 @@
         <v>60</v>
       </c>
       <c r="B42">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C42">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D42">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1083,16 +1099,16 @@
         <v>61</v>
       </c>
       <c r="B43">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C43">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D43">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E43">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1100,16 +1116,16 @@
         <v>62</v>
       </c>
       <c r="B44">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C44">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D44">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E44">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1117,16 +1133,16 @@
         <v>63</v>
       </c>
       <c r="B45">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C45">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D45">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E45">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1134,16 +1150,16 @@
         <v>64</v>
       </c>
       <c r="B46">
-        <v>2.0599999999999999E-4</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C46">
-        <v>3.77E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="D46">
-        <v>8.0400000000000003E-4</v>
+        <v>1.5269999999999999E-3</v>
       </c>
       <c r="E46">
-        <v>1.5229999999999998E-3</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,16 +1167,16 @@
         <v>65</v>
       </c>
       <c r="B47">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C47">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D47">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E47">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1168,16 +1184,16 @@
         <v>66</v>
       </c>
       <c r="B48">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C48">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D48">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E48">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1185,16 +1201,16 @@
         <v>67</v>
       </c>
       <c r="B49">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C49">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D49">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E49">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1202,16 +1218,16 @@
         <v>68</v>
       </c>
       <c r="B50">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C50">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D50">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E50">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1219,16 +1235,16 @@
         <v>69</v>
       </c>
       <c r="B51">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C51">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D51">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E51">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1236,16 +1252,16 @@
         <v>70</v>
       </c>
       <c r="B52">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C52">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D52">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E52">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1253,16 +1269,16 @@
         <v>71</v>
       </c>
       <c r="B53">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C53">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D53">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E53">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1270,16 +1286,16 @@
         <v>72</v>
       </c>
       <c r="B54">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C54">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D54">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E54">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1287,16 +1303,16 @@
         <v>73</v>
       </c>
       <c r="B55">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C55">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D55">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E55">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1304,16 +1320,16 @@
         <v>74</v>
       </c>
       <c r="B56">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C56">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D56">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E56">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1321,16 +1337,16 @@
         <v>75</v>
       </c>
       <c r="B57">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C57">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D57">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E57">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1338,16 +1354,16 @@
         <v>76</v>
       </c>
       <c r="B58">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C58">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D58">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E58">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1355,16 +1371,16 @@
         <v>77</v>
       </c>
       <c r="B59">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C59">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D59">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E59">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1372,16 +1388,16 @@
         <v>78</v>
       </c>
       <c r="B60">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C60">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D60">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E60">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1389,16 +1405,16 @@
         <v>79</v>
       </c>
       <c r="B61">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C61">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D61">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E61">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1406,16 +1422,16 @@
         <v>80</v>
       </c>
       <c r="B62">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C62">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D62">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E62">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1423,16 +1439,16 @@
         <v>81</v>
       </c>
       <c r="B63">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C63">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D63">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E63">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1440,16 +1456,16 @@
         <v>82</v>
       </c>
       <c r="B64">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C64">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D64">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E64">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1457,16 +1473,16 @@
         <v>83</v>
       </c>
       <c r="B65">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C65">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D65">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E65">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1474,16 +1490,16 @@
         <v>84</v>
       </c>
       <c r="B66">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C66">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D66">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E66">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,16 +1507,16 @@
         <v>85</v>
       </c>
       <c r="B67">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C67">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D67">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E67">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1508,16 +1524,16 @@
         <v>86</v>
       </c>
       <c r="B68">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C68">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D68">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E68">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1525,16 +1541,16 @@
         <v>87</v>
       </c>
       <c r="B69">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C69">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D69">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E69">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1542,16 +1558,16 @@
         <v>88</v>
       </c>
       <c r="B70">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C70">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D70">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E70">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1559,16 +1575,16 @@
         <v>89</v>
       </c>
       <c r="B71">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C71">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D71">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E71">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1576,16 +1592,16 @@
         <v>90</v>
       </c>
       <c r="B72">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C72">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D72">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E72">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1593,16 +1609,16 @@
         <v>91</v>
       </c>
       <c r="B73">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C73">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D73">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E73">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1610,16 +1626,16 @@
         <v>92</v>
       </c>
       <c r="B74">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C74">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D74">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E74">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1627,16 +1643,16 @@
         <v>93</v>
       </c>
       <c r="B75">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C75">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D75">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E75">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1644,16 +1660,16 @@
         <v>94</v>
       </c>
       <c r="B76">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C76">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D76">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E76">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1661,16 +1677,16 @@
         <v>95</v>
       </c>
       <c r="B77">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C77">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D77">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E77">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1678,16 +1694,16 @@
         <v>96</v>
       </c>
       <c r="B78">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C78">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D78">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E78">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,16 +1711,16 @@
         <v>97</v>
       </c>
       <c r="B79">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C79">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D79">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E79">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1712,16 +1728,16 @@
         <v>98</v>
       </c>
       <c r="B80">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C80">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D80">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E80">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -1729,16 +1745,16 @@
         <v>99</v>
       </c>
       <c r="B81">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C81">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D81">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E81">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -1746,16 +1762,16 @@
         <v>100</v>
       </c>
       <c r="B82">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C82">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D82">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E82">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -1763,16 +1779,16 @@
         <v>101</v>
       </c>
       <c r="B83">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C83">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D83">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E83">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1780,16 +1796,16 @@
         <v>102</v>
       </c>
       <c r="B84">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C84">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D84">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E84">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E84" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -1797,16 +1813,16 @@
         <v>103</v>
       </c>
       <c r="B85">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C85">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D85">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E85">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -1814,16 +1830,16 @@
         <v>104</v>
       </c>
       <c r="B86">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C86">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D86">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E86">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -1831,16 +1847,16 @@
         <v>105</v>
       </c>
       <c r="B87">
-        <v>3.7499999999999999E-3</v>
+        <v>5.8129999999999996E-3</v>
       </c>
       <c r="C87">
-        <v>6.862E-3</v>
+        <v>1.1223E-2</v>
       </c>
       <c r="D87">
-        <v>1.4618000000000001E-2</v>
-      </c>
-      <c r="E87">
-        <v>2.7670000000000004E-2</v>
+        <v>2.1295999999999999E-2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>4.0920000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Vjerojatnost smrti populacije od kriticnih bolesti i zdravih od ostalih bolesti_gamma_0.xlsx
+++ b/Vjerojatnost smrti populacije od kriticnih bolesti i zdravih od ostalih bolesti_gamma_0.xlsx
@@ -40,13 +40,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +93,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:E87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,1462 +408,1462 @@
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C2">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D2">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E2">
-        <v>6.38E-4</v>
+      <c r="B2" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C3">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D3">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E3">
-        <v>6.38E-4</v>
+      <c r="B3" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C4">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D4">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E4">
-        <v>6.38E-4</v>
+      <c r="B4" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C5">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D5">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E5">
-        <v>6.38E-4</v>
+      <c r="B5" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C6">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D6">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E6">
-        <v>6.38E-4</v>
+      <c r="B6" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C7">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D7">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E7">
-        <v>6.38E-4</v>
+      <c r="B7" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C8">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D8">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E8">
-        <v>6.38E-4</v>
+      <c r="B8" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C9">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D9">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E9">
-        <v>6.38E-4</v>
+      <c r="B9" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C10">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D10">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E10">
-        <v>6.38E-4</v>
+      <c r="B10" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C11">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D11">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E11">
-        <v>6.38E-4</v>
+      <c r="B11" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C12">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D12">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E12">
-        <v>6.38E-4</v>
+      <c r="B12" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C13">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D13">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E13">
-        <v>6.38E-4</v>
+      <c r="B13" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C14">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D14">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E14">
-        <v>6.38E-4</v>
+      <c r="B14" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C15">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D15">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E15">
-        <v>6.38E-4</v>
+      <c r="B15" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C16">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D16">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E16">
-        <v>6.38E-4</v>
+      <c r="B16" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C17">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D17">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E17">
-        <v>6.38E-4</v>
+      <c r="B17" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C18">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D18">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E18">
-        <v>6.38E-4</v>
+      <c r="B18" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C19">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D19">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E19">
-        <v>6.38E-4</v>
+      <c r="B19" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C20">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D20">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E20">
-        <v>6.38E-4</v>
+      <c r="B20" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C21">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D21">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E21">
-        <v>6.38E-4</v>
+      <c r="B21" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C22">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D22">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E22">
-        <v>6.38E-4</v>
+      <c r="B22" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C23">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D23">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E23">
-        <v>6.38E-4</v>
+      <c r="B23" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C24">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D24">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E24">
-        <v>6.38E-4</v>
+      <c r="B24" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C25">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D25">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E25">
-        <v>6.38E-4</v>
+      <c r="B25" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C26">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D26">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E26">
-        <v>6.38E-4</v>
+      <c r="B26" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C27">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D27">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E27">
-        <v>6.38E-4</v>
+      <c r="B27" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C28">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D28">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E28">
-        <v>6.38E-4</v>
+      <c r="B28" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C29">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D29">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E29">
-        <v>6.38E-4</v>
+      <c r="B29" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C30">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D30">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E30">
-        <v>6.38E-4</v>
+      <c r="B30" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>49</v>
       </c>
-      <c r="B31">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C31">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D31">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E31">
-        <v>6.38E-4</v>
+      <c r="B31" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>50</v>
       </c>
-      <c r="B32">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C32">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D32">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E32">
-        <v>6.38E-4</v>
+      <c r="B32" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>51</v>
       </c>
-      <c r="B33">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C33">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D33">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E33">
-        <v>6.38E-4</v>
+      <c r="B33" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>52</v>
       </c>
-      <c r="B34">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C34">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D34">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E34">
-        <v>6.38E-4</v>
+      <c r="B34" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>53</v>
       </c>
-      <c r="B35">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C35">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D35">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E35">
-        <v>6.38E-4</v>
+      <c r="B35" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>54</v>
       </c>
-      <c r="B36">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C36">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D36">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E36">
-        <v>6.38E-4</v>
+      <c r="B36" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>55</v>
       </c>
-      <c r="B37">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C37">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D37">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E37">
-        <v>6.38E-4</v>
+      <c r="B37" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>56</v>
       </c>
-      <c r="B38">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C38">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D38">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E38">
-        <v>6.38E-4</v>
+      <c r="B38" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>57</v>
       </c>
-      <c r="B39">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C39">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D39">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E39">
-        <v>6.38E-4</v>
+      <c r="B39" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>58</v>
       </c>
-      <c r="B40">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C40">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D40">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E40">
-        <v>6.38E-4</v>
+      <c r="B40" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>59</v>
       </c>
-      <c r="B41">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C41">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D41">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E41">
-        <v>6.38E-4</v>
+      <c r="B41" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>60</v>
       </c>
-      <c r="B42">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C42">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D42">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E42">
-        <v>6.38E-4</v>
+      <c r="B42" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>61</v>
       </c>
-      <c r="B43">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C43">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D43">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E43">
-        <v>6.38E-4</v>
+      <c r="B43" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>62</v>
       </c>
-      <c r="B44">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C44">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D44">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E44">
-        <v>6.38E-4</v>
+      <c r="B44" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>63</v>
       </c>
-      <c r="B45">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C45">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D45">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E45">
-        <v>6.38E-4</v>
+      <c r="B45" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>64</v>
       </c>
-      <c r="B46">
-        <v>4.17E-4</v>
-      </c>
-      <c r="C46">
-        <v>8.0500000000000005E-4</v>
-      </c>
-      <c r="D46">
-        <v>1.5269999999999999E-3</v>
-      </c>
-      <c r="E46">
-        <v>6.38E-4</v>
+      <c r="B46" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5.3899999999999998E-4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.4609999999999996E-3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>65</v>
       </c>
-      <c r="B47">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C47">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D47">
-        <v>2.1295999999999999E-2</v>
+      <c r="B47" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E47" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>66</v>
       </c>
-      <c r="B48">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C48">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D48">
-        <v>2.1295999999999999E-2</v>
+      <c r="B48" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E48" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>67</v>
       </c>
-      <c r="B49">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C49">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D49">
-        <v>2.1295999999999999E-2</v>
+      <c r="B49" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E49" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>68</v>
       </c>
-      <c r="B50">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C50">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D50">
-        <v>2.1295999999999999E-2</v>
+      <c r="B50" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E50" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>69</v>
       </c>
-      <c r="B51">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C51">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D51">
-        <v>2.1295999999999999E-2</v>
+      <c r="B51" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E51" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>70</v>
       </c>
-      <c r="B52">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C52">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D52">
-        <v>2.1295999999999999E-2</v>
+      <c r="B52" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E52" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>71</v>
       </c>
-      <c r="B53">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C53">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D53">
-        <v>2.1295999999999999E-2</v>
+      <c r="B53" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E53" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>72</v>
       </c>
-      <c r="B54">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C54">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D54">
-        <v>2.1295999999999999E-2</v>
+      <c r="B54" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E54" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>73</v>
       </c>
-      <c r="B55">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C55">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D55">
-        <v>2.1295999999999999E-2</v>
+      <c r="B55" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E55" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>74</v>
       </c>
-      <c r="B56">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C56">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D56">
-        <v>2.1295999999999999E-2</v>
+      <c r="B56" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E56" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>75</v>
       </c>
-      <c r="B57">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C57">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D57">
-        <v>2.1295999999999999E-2</v>
+      <c r="B57" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E57" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>76</v>
       </c>
-      <c r="B58">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C58">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D58">
-        <v>2.1295999999999999E-2</v>
+      <c r="B58" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E58" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>77</v>
       </c>
-      <c r="B59">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C59">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D59">
-        <v>2.1295999999999999E-2</v>
+      <c r="B59" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E59" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>78</v>
       </c>
-      <c r="B60">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C60">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D60">
-        <v>2.1295999999999999E-2</v>
+      <c r="B60" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E60" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>79</v>
       </c>
-      <c r="B61">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C61">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D61">
-        <v>2.1295999999999999E-2</v>
+      <c r="B61" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E61" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>80</v>
       </c>
-      <c r="B62">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C62">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D62">
-        <v>2.1295999999999999E-2</v>
+      <c r="B62" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E62" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>81</v>
       </c>
-      <c r="B63">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C63">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D63">
-        <v>2.1295999999999999E-2</v>
+      <c r="B63" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E63" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>82</v>
       </c>
-      <c r="B64">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C64">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D64">
-        <v>2.1295999999999999E-2</v>
+      <c r="B64" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E64" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>83</v>
       </c>
-      <c r="B65">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C65">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D65">
-        <v>2.1295999999999999E-2</v>
+      <c r="B65" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E65" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>84</v>
       </c>
-      <c r="B66">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C66">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D66">
-        <v>2.1295999999999999E-2</v>
+      <c r="B66" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E66" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>85</v>
       </c>
-      <c r="B67">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C67">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D67">
-        <v>2.1295999999999999E-2</v>
+      <c r="B67" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E67" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>86</v>
       </c>
-      <c r="B68">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C68">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D68">
-        <v>2.1295999999999999E-2</v>
+      <c r="B68" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E68" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>87</v>
       </c>
-      <c r="B69">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C69">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D69">
-        <v>2.1295999999999999E-2</v>
+      <c r="B69" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E69" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>88</v>
       </c>
-      <c r="B70">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C70">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D70">
-        <v>2.1295999999999999E-2</v>
+      <c r="B70" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E70" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>89</v>
       </c>
-      <c r="B71">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C71">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D71">
-        <v>2.1295999999999999E-2</v>
+      <c r="B71" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E71" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>90</v>
       </c>
-      <c r="B72">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C72">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D72">
-        <v>2.1295999999999999E-2</v>
+      <c r="B72" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E72" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>91</v>
       </c>
-      <c r="B73">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C73">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D73">
-        <v>2.1295999999999999E-2</v>
+      <c r="B73" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E73" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>92</v>
       </c>
-      <c r="B74">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C74">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D74">
-        <v>2.1295999999999999E-2</v>
+      <c r="B74" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E74" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>93</v>
       </c>
-      <c r="B75">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C75">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D75">
-        <v>2.1295999999999999E-2</v>
+      <c r="B75" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E75" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>94</v>
       </c>
-      <c r="B76">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C76">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D76">
-        <v>2.1295999999999999E-2</v>
+      <c r="B76" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E76" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>95</v>
       </c>
-      <c r="B77">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C77">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D77">
-        <v>2.1295999999999999E-2</v>
+      <c r="B77" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E77" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>96</v>
       </c>
-      <c r="B78">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C78">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D78">
-        <v>2.1295999999999999E-2</v>
+      <c r="B78" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E78" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>97</v>
       </c>
-      <c r="B79">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C79">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D79">
-        <v>2.1295999999999999E-2</v>
+      <c r="B79" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E79" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>98</v>
       </c>
-      <c r="B80">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C80">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D80">
-        <v>2.1295999999999999E-2</v>
+      <c r="B80" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E80" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>99</v>
       </c>
-      <c r="B81">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C81">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D81">
-        <v>2.1295999999999999E-2</v>
+      <c r="B81" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E81" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>100</v>
       </c>
-      <c r="B82">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C82">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D82">
-        <v>2.1295999999999999E-2</v>
+      <c r="B82" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E82" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>101</v>
       </c>
-      <c r="B83">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C83">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D83">
-        <v>2.1295999999999999E-2</v>
+      <c r="B83" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C83" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E83" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>102</v>
       </c>
-      <c r="B84">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C84">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D84">
-        <v>2.1295999999999999E-2</v>
+      <c r="B84" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C84" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E84" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>103</v>
       </c>
-      <c r="B85">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C85">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D85">
-        <v>2.1295999999999999E-2</v>
+      <c r="B85" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E85" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>104</v>
       </c>
-      <c r="B86">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C86">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D86">
-        <v>2.1295999999999999E-2</v>
+      <c r="B86" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E86" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>105</v>
       </c>
-      <c r="B87">
-        <v>5.8129999999999996E-3</v>
-      </c>
-      <c r="C87">
-        <v>1.1223E-2</v>
-      </c>
-      <c r="D87">
-        <v>2.1295999999999999E-2</v>
+      <c r="B87" s="1">
+        <v>4.4730000000000004E-3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>7.9039999999999996E-3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1.7368000000000001E-2</v>
       </c>
       <c r="E87" s="1">
-        <v>4.0920000000000002E-3</v>
+        <v>3.6092000000000006E-2</v>
       </c>
     </row>
   </sheetData>
